--- a/src/test/java/resources/smoketestdata (1).xlsx
+++ b/src/test/java/resources/smoketestdata (1).xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guler\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F3D336-324A-49F1-BEFC-0617196BC640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44610" yWindow="3105" windowWidth="12540" windowHeight="8880" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44610" yWindow="3105" windowWidth="12540" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="admin_login_info" sheetId="1" r:id="rId1"/>
     <sheet name="manager_login_info" sheetId="2" r:id="rId2"/>
     <sheet name="negative_login_info" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -87,8 +81,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -357,19 +351,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -377,7 +371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -391,19 +385,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -411,7 +405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -419,7 +413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -427,7 +421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -441,17 +435,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -467,7 +461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -475,7 +469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -483,7 +477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -491,7 +485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
